--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H2">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I2">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J2">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N2">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O2">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P2">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q2">
-        <v>2.702634501785556</v>
+        <v>2.471970091234444</v>
       </c>
       <c r="R2">
-        <v>24.32371051607</v>
+        <v>22.24773082111</v>
       </c>
       <c r="S2">
-        <v>0.01775092617030494</v>
+        <v>0.006444575727914612</v>
       </c>
       <c r="T2">
-        <v>0.01844225103417313</v>
+        <v>0.006530049794827281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H3">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I3">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J3">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N3">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O3">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P3">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q3">
-        <v>0.03608139333166666</v>
+        <v>0.189123400665</v>
       </c>
       <c r="R3">
-        <v>0.21648835999</v>
+        <v>1.13474040399</v>
       </c>
       <c r="S3">
-        <v>0.0002369828952930934</v>
+        <v>0.0004930561586599451</v>
       </c>
       <c r="T3">
-        <v>0.0001641415966644673</v>
+        <v>0.0003330636909372416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7779683333333333</v>
+        <v>0.5778633333333333</v>
       </c>
       <c r="H4">
-        <v>2.333905</v>
+        <v>1.73359</v>
       </c>
       <c r="I4">
-        <v>0.03257389909260203</v>
+        <v>0.01822222003587956</v>
       </c>
       <c r="J4">
-        <v>0.03376044640127995</v>
+        <v>0.01829736853065394</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N4">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O4">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P4">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q4">
-        <v>2.220762990701111</v>
+        <v>4.328471814855555</v>
       </c>
       <c r="R4">
-        <v>19.98686691631</v>
+        <v>38.95624633369999</v>
       </c>
       <c r="S4">
-        <v>0.01458599002700399</v>
+        <v>0.01128458814930501</v>
       </c>
       <c r="T4">
-        <v>0.01515405377044235</v>
+        <v>0.01143425504488941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>2.792502</v>
       </c>
       <c r="I5">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J5">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N5">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O5">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P5">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q5">
-        <v>3.233684426532</v>
+        <v>3.981899655461999</v>
       </c>
       <c r="R5">
-        <v>29.103159838788</v>
+        <v>35.837096899158</v>
       </c>
       <c r="S5">
-        <v>0.02123886654873652</v>
+        <v>0.01038105354169845</v>
       </c>
       <c r="T5">
-        <v>0.02206603220672244</v>
+        <v>0.01051873690558596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>2.792502</v>
       </c>
       <c r="I6">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J6">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N6">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O6">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P6">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q6">
-        <v>0.043171150086</v>
+        <v>0.3046438169369999</v>
       </c>
       <c r="R6">
-        <v>0.259026900516</v>
+        <v>1.827862901622</v>
       </c>
       <c r="S6">
-        <v>0.0002835484773680823</v>
+        <v>0.0007942248796833242</v>
       </c>
       <c r="T6">
-        <v>0.0001963943420870679</v>
+        <v>0.0005365057614947185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.792502</v>
       </c>
       <c r="I7">
-        <v>0.03897445627130897</v>
+        <v>0.02935272232455987</v>
       </c>
       <c r="J7">
-        <v>0.04039415233116475</v>
+        <v>0.02947377304702275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N7">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O7">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P7">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q7">
-        <v>2.657128329156</v>
+        <v>6.972390357539999</v>
       </c>
       <c r="R7">
-        <v>23.91415496240399</v>
+        <v>62.75151321785999</v>
       </c>
       <c r="S7">
-        <v>0.01745204124520437</v>
+        <v>0.0181774439031781</v>
       </c>
       <c r="T7">
-        <v>0.01813172578235524</v>
+        <v>0.01841853037994207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H8">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I8">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J8">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N8">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O8">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P8">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q8">
-        <v>41.414855877808</v>
+        <v>69.33579869901534</v>
       </c>
       <c r="R8">
-        <v>372.7337029002721</v>
+        <v>624.022188291138</v>
       </c>
       <c r="S8">
-        <v>0.2720131222165243</v>
+        <v>0.1807626261157984</v>
       </c>
       <c r="T8">
-        <v>0.2826069037962868</v>
+        <v>0.1831600712622659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H9">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I9">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J9">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N9">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O9">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P9">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q9">
-        <v>0.5529070629840001</v>
+        <v>5.304684746907</v>
       </c>
       <c r="R9">
-        <v>3.317442377904</v>
+        <v>31.828108481442</v>
       </c>
       <c r="S9">
-        <v>0.003631498246464658</v>
+        <v>0.01382963438165379</v>
       </c>
       <c r="T9">
-        <v>0.002515286682280204</v>
+        <v>0.009342037393843797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.921496</v>
+        <v>16.208374</v>
       </c>
       <c r="H10">
-        <v>35.764488</v>
+        <v>48.625122</v>
       </c>
       <c r="I10">
-        <v>0.4991586303686639</v>
+        <v>0.5111114348580046</v>
       </c>
       <c r="J10">
-        <v>0.5173411429313618</v>
+        <v>0.5132192600799546</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N10">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O10">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P10">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q10">
-        <v>34.03071304606399</v>
+        <v>121.4084472516067</v>
       </c>
       <c r="R10">
-        <v>306.276417414576</v>
+        <v>1092.67602526446</v>
       </c>
       <c r="S10">
-        <v>0.2235140099056749</v>
+        <v>0.3165191743605525</v>
       </c>
       <c r="T10">
-        <v>0.2322189524527948</v>
+        <v>0.3207171514238449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5182005</v>
+        <v>0.39073</v>
       </c>
       <c r="H11">
-        <v>5.036401</v>
+        <v>0.78146</v>
       </c>
       <c r="I11">
-        <v>0.1054382363231665</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J11">
-        <v>0.07285264225229936</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N11">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O11">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P11">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q11">
-        <v>8.748139560582334</v>
+        <v>1.671455546723333</v>
       </c>
       <c r="R11">
-        <v>52.48883736349401</v>
+        <v>10.02873328034</v>
       </c>
       <c r="S11">
-        <v>0.05745785431393952</v>
+        <v>0.00435758583200424</v>
       </c>
       <c r="T11">
-        <v>0.03979706609770346</v>
+        <v>0.002943586841563303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5182005</v>
+        <v>0.39073</v>
       </c>
       <c r="H12">
-        <v>5.036401</v>
+        <v>0.78146</v>
       </c>
       <c r="I12">
-        <v>0.1054382363231665</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J12">
-        <v>0.07285264225229936</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N12">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O12">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P12">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q12">
-        <v>0.1167916209895</v>
+        <v>0.127878309765</v>
       </c>
       <c r="R12">
-        <v>0.467166483958</v>
+        <v>0.51151323906</v>
       </c>
       <c r="S12">
-        <v>0.0007670883503208344</v>
+        <v>0.0003333864977414505</v>
       </c>
       <c r="T12">
-        <v>0.0003542058916633366</v>
+        <v>0.0001501369712099267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5182005</v>
+        <v>0.39073</v>
       </c>
       <c r="H13">
-        <v>5.036401</v>
+        <v>0.78146</v>
       </c>
       <c r="I13">
-        <v>0.1054382363231665</v>
+        <v>0.01232119711342224</v>
       </c>
       <c r="J13">
-        <v>0.07285264225229936</v>
+        <v>0.008248006513630573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N13">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O13">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P13">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q13">
-        <v>7.188372886083666</v>
+        <v>2.926753947966667</v>
       </c>
       <c r="R13">
-        <v>43.13023731650199</v>
+        <v>17.5605236878</v>
       </c>
       <c r="S13">
-        <v>0.04721329365890618</v>
+        <v>0.007630224783676554</v>
       </c>
       <c r="T13">
-        <v>0.03270137026293256</v>
+        <v>0.005154282700857343</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.734682333333333</v>
+        <v>13.60421466666667</v>
       </c>
       <c r="H14">
-        <v>23.204047</v>
+        <v>40.81264400000001</v>
       </c>
       <c r="I14">
-        <v>0.3238547779442587</v>
+        <v>0.4289924256681337</v>
       </c>
       <c r="J14">
-        <v>0.3356516160838941</v>
+        <v>0.4307615918287382</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N14">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O14">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P14">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q14">
-        <v>26.87001313389089</v>
+        <v>58.19578753465289</v>
       </c>
       <c r="R14">
-        <v>241.830118205018</v>
+        <v>523.7620878118761</v>
       </c>
       <c r="S14">
-        <v>0.1764824725724851</v>
+        <v>0.1517199423822357</v>
       </c>
       <c r="T14">
-        <v>0.1833557320382586</v>
+        <v>0.153732195950922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.734682333333333</v>
+        <v>13.60421466666667</v>
       </c>
       <c r="H15">
-        <v>23.204047</v>
+        <v>40.81264400000001</v>
       </c>
       <c r="I15">
-        <v>0.3238547779442587</v>
+        <v>0.4289924256681337</v>
       </c>
       <c r="J15">
-        <v>0.3356516160838941</v>
+        <v>0.4307615918287382</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N15">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O15">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P15">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q15">
-        <v>0.3587268319376667</v>
+        <v>4.452394178214001</v>
       </c>
       <c r="R15">
-        <v>2.152360991626</v>
+        <v>26.714365069284</v>
       </c>
       <c r="S15">
-        <v>0.002356120853495331</v>
+        <v>0.01160766125519636</v>
       </c>
       <c r="T15">
-        <v>0.001631921317987382</v>
+        <v>0.007841075368194134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.734682333333333</v>
+        <v>13.60421466666667</v>
       </c>
       <c r="H16">
-        <v>23.204047</v>
+        <v>40.81264400000001</v>
       </c>
       <c r="I16">
-        <v>0.3238547779442587</v>
+        <v>0.4289924256681337</v>
       </c>
       <c r="J16">
-        <v>0.3356516160838941</v>
+        <v>0.4307615918287382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N16">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O16">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P16">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q16">
-        <v>22.07917152244378</v>
+        <v>101.9020525289911</v>
       </c>
       <c r="R16">
-        <v>198.712543701994</v>
+        <v>917.1184727609201</v>
       </c>
       <c r="S16">
-        <v>0.1450161845182782</v>
+        <v>0.2656648220307017</v>
       </c>
       <c r="T16">
-        <v>0.1506639627276481</v>
+        <v>0.269188320509622</v>
       </c>
     </row>
   </sheetData>
